--- a/outputs-HGR-r202/g__QALS01.xlsx
+++ b/outputs-HGR-r202/g__QALS01.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,35 +442,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>1-s__</t>
+          <t>1-s__QALS01 sp003150575</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2-s__QALS01 sp003150575</t>
+          <t>2-s__QALS01 sp900552625</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>3-s__QALS01 sp900552625</t>
+          <t>3-s__QALS01 sp900555925</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>4-s__QALS01 sp900555925</t>
+          <t>max</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -483,26 +478,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.079246534292683e-09</v>
+        <v>0.9834897815084089</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9997530914989406</v>
+        <v>1.427115111048044e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>2.669166739980824e-07</v>
+        <v>0.01649594734048057</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0002466395051388388</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.9997530914989406</v>
+        <v>0.9834897815084089</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
         <is>
           <t>s__QALS01 sp003150575</t>
         </is>
@@ -515,26 +507,23 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.40320380619872e-09</v>
+        <v>0.9949405199707833</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9999895916496301</v>
+        <v>0.0003275021817895499</v>
       </c>
       <c r="D3" t="n">
-        <v>1.330226066175775e-06</v>
+        <v>0.004731977847427168</v>
       </c>
       <c r="E3" t="n">
-        <v>9.070721099869396e-06</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9999895916496301</v>
+        <v>0.9949405199707833</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
         <is>
           <t>s__QALS01 sp003150575</t>
         </is>
@@ -547,26 +536,23 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.056178543224135e-09</v>
+        <v>0.9907832778143155</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9998748946604626</v>
+        <v>0.0001647720049657807</v>
       </c>
       <c r="D4" t="n">
-        <v>5.753735126873209e-07</v>
+        <v>0.009051950180718677</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0001245249098460599</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.9998748946604626</v>
+        <v>0.9907832778143155</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
         <is>
           <t>s__QALS01 sp003150575</t>
         </is>
@@ -579,26 +565,23 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.494041054233852e-08</v>
+        <v>0.9771554749413565</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9998207662274263</v>
+        <v>1.276345295741989e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>1.361278914393288e-07</v>
+        <v>0.02283176160568609</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0001790727042717344</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.9998207662274263</v>
+        <v>0.9771554749413565</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
         <is>
           <t>s__QALS01 sp003150575</t>
         </is>
@@ -611,26 +594,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.365224129078552e-09</v>
+        <v>0.9898103400688453</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9998909636088833</v>
+        <v>2.34605527568172e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>1.376384863619351e-07</v>
+        <v>0.01016619937839794</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0001088963874062503</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.9998909636088833</v>
+        <v>0.9898103400688453</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
         <is>
           <t>s__QALS01 sp003150575</t>
         </is>
@@ -643,26 +623,23 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.995380903824106e-08</v>
+        <v>0.9826123039338699</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9996418852414056</v>
+        <v>1.95299136840883e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>2.255089767586443e-08</v>
+        <v>0.0173681661524461</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0003580622538875993</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.9996418852414056</v>
+        <v>0.9826123039338699</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
         <is>
           <t>s__QALS01 sp003150575</t>
         </is>
@@ -675,26 +652,23 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.296201226913925e-09</v>
+        <v>0.9976232738873041</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9997994846556895</v>
+        <v>1.366511352095436e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>3.349129427400898e-07</v>
+        <v>0.002363060999175012</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0002001791351664788</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.9997994846556895</v>
+        <v>0.9976232738873041</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
         <is>
           <t>s__QALS01 sp003150575</t>
         </is>
@@ -707,26 +681,23 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.127297732606866e-09</v>
+        <v>0.9947088169678094</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9998240159690123</v>
+        <v>1.861801676802299e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>1.979121952969494e-07</v>
+        <v>0.005272565015422553</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0001757799914947456</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.9998240159690123</v>
+        <v>0.9947088169678094</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="G9" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
         <is>
           <t>s__QALS01 sp003150575</t>
         </is>
@@ -739,26 +710,23 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.513181760174947e-09</v>
+        <v>0.9739116410732851</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9982595299509721</v>
+        <v>8.041774921571589e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>4.063340318663777e-07</v>
+        <v>0.0260079411774993</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001740062201814079</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.9982595299509721</v>
+        <v>0.9739116410732851</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="G10" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
         <is>
           <t>s__QALS01 sp003150575</t>
         </is>
@@ -771,26 +739,23 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.046890312240815e-09</v>
+        <v>0.9904798195674834</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9998793516491493</v>
+        <v>0.0001391419349387173</v>
       </c>
       <c r="D11" t="n">
-        <v>8.807634573844088e-07</v>
+        <v>0.009381038497577949</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0001197615405030746</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.9998793516491493</v>
+        <v>0.9904798195674834</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="G11" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
         <is>
           <t>s__QALS01 sp003150575</t>
         </is>

--- a/outputs-HGR-r202/g__QALS01.xlsx
+++ b/outputs-HGR-r202/g__QALS01.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,11 @@
           <t>s__QALS01 sp003150575</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +523,11 @@
           <t>s__QALS01 sp003150575</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -537,6 +552,11 @@
           <t>s__QALS01 sp003150575</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -561,6 +581,11 @@
           <t>s__QALS01 sp003150575</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -585,6 +610,11 @@
           <t>s__QALS01 sp003150575</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -609,6 +639,11 @@
           <t>s__QALS01 sp003150575</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -633,6 +668,11 @@
           <t>s__QALS01 sp003150575</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -657,6 +697,11 @@
           <t>s__QALS01 sp003150575</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -681,6 +726,11 @@
           <t>s__QALS01 sp003150575</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -701,6 +751,11 @@
         <v>0.9904798195674834</v>
       </c>
       <c r="F11" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>s__QALS01 sp003150575</t>
         </is>
